--- a/doc/Planificateur de projet Gantt1.xlsx
+++ b/doc/Planificateur de projet Gantt1.xlsx
@@ -3,18 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A185B39B-C8CC-4BEA-AA36-D4BD86CBE45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAC74D0-63BC-4529-B211-4781D2AA387D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32475" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="18000" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificateur de projet" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil1 (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Feuil1!$A$1:$F$51</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Feuil1 (2)'!$A$8:$E$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Feuil1 (2)'!$A$8:$E$49</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planificateur de projet'!$2:$2</definedName>
     <definedName name="période_sélectionnée">'Planificateur de projet'!#REF!</definedName>
     <definedName name="PériodeDansPlan">'Planificateur de projet'!A$2=MEDIAN('Planificateur de projet'!A$2,'Planificateur de projet'!#REF!,'Planificateur de projet'!#REF!+'Planificateur de projet'!#REF!-1)</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="172">
   <si>
     <t>Roder le discours</t>
   </si>
@@ -495,17 +496,80 @@
     <t>Nav 3</t>
   </si>
   <si>
-    <t>Refaire étapes U3 à U5</t>
-  </si>
-  <si>
     <t>Nav2</t>
+  </si>
+  <si>
+    <t>Ecran modification du mot de passe</t>
+  </si>
+  <si>
+    <t>Modification du mot de passe</t>
+  </si>
+  <si>
+    <t>1- mot de passe noté</t>
+  </si>
+  <si>
+    <t>2- n'importe quel mot de passe valide</t>
+  </si>
+  <si>
+    <t>3- idem que 2</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>marges</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>nom appli</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>boutons</t>
+  </si>
+  <si>
+    <t>renard</t>
+  </si>
+  <si>
+    <t>renar</t>
+  </si>
+  <si>
+    <t>sjoffre + renard</t>
+  </si>
+  <si>
+    <t>toto + renard</t>
+  </si>
+  <si>
+    <t>9cc140dd813383e134e7e365b203780da9376438</t>
+  </si>
+  <si>
+    <t>cb9339cd020a2e2b49540dc9d05d5998e5d1af5c</t>
+  </si>
+  <si>
+    <t>458166e20d5e5471fa728804a0d4515f3968f37c</t>
+  </si>
+  <si>
+    <t>611db074853d379862f97ee5cbdf8db4d5f21fba</t>
+  </si>
+  <si>
+    <t>chaîne à crypter</t>
+  </si>
+  <si>
+    <t>empreinte numérique</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -609,6 +673,14 @@
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="11">
@@ -957,7 +1029,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1009,9 +1081,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1036,29 +1105,158 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1066,148 +1264,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1734,25 +1797,25 @@
   </sheetPr>
   <dimension ref="B1:BK63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.58203125" customWidth="1"/>
-    <col min="2" max="2" width="28.08203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="80.25" style="2" customWidth="1"/>
     <col min="4" max="23" width="3.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:63" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:63" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="2:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="3">
@@ -1936,7 +1999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1945,14 +2008,14 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1961,14 +2024,14 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>6</v>
@@ -1976,7 +2039,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
@@ -1986,21 +2049,21 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="8"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2009,91 +2072,91 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
@@ -2109,14 +2172,14 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="8"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
@@ -2125,14 +2188,14 @@
       </c>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
         <v>22</v>
@@ -2140,7 +2203,7 @@
       <c r="N28"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
         <v>11</v>
@@ -2148,69 +2211,69 @@
       <c r="N29"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
       <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
       <c r="C33" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="7"/>
       <c r="C35" s="8" t="s">
         <v>19</v>
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="7"/>
       <c r="C36" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="7"/>
       <c r="C37" s="8" t="s">
         <v>28</v>
       </c>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="7"/>
       <c r="C38" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
         <v>29</v>
       </c>
@@ -2228,101 +2291,101 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="2:26" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:26" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
     </row>
-    <row r="52" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
     </row>
-    <row r="54" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
     </row>
-    <row r="55" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
     </row>
-    <row r="56" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
     </row>
-    <row r="58" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
     </row>
-    <row r="61" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
     </row>
-    <row r="62" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
     </row>
@@ -2417,21 +2480,21 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.6640625" style="10"/>
-    <col min="4" max="5" width="7.33203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="51.83203125" style="10" customWidth="1"/>
-    <col min="7" max="19" width="7.33203125" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="10.6640625" style="10"/>
+    <col min="1" max="3" width="10.625" style="10"/>
+    <col min="4" max="5" width="7.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="51.875" style="10" customWidth="1"/>
+    <col min="7" max="19" width="7.375" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="10.625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D1" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -2445,7 +2508,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>64</v>
       </c>
@@ -2462,7 +2525,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="10" t="s">
         <v>54</v>
       </c>
@@ -2470,7 +2533,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>101</v>
       </c>
@@ -2481,17 +2544,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>54</v>
       </c>
@@ -2499,7 +2562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>102</v>
       </c>
@@ -2510,57 +2573,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F18" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="10" t="s">
         <v>54</v>
       </c>
@@ -2568,7 +2631,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>104</v>
       </c>
@@ -2579,7 +2642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>103</v>
       </c>
@@ -2590,7 +2653,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="10" t="s">
         <v>54</v>
       </c>
@@ -2598,7 +2661,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>65</v>
       </c>
@@ -2612,7 +2675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" s="10" t="s">
         <v>54</v>
       </c>
@@ -2620,7 +2683,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>106</v>
       </c>
@@ -2631,17 +2694,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E27" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E28" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" s="10" t="s">
         <v>54</v>
       </c>
@@ -2649,7 +2712,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>107</v>
       </c>
@@ -2660,27 +2723,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E32" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E33" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E34" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C35" s="10" t="s">
         <v>54</v>
       </c>
@@ -2688,12 +2751,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>64</v>
       </c>
@@ -2707,17 +2770,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E38" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E39" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" s="10" t="s">
         <v>54</v>
       </c>
@@ -2725,7 +2788,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>109</v>
       </c>
@@ -2736,7 +2799,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C42" s="10" t="s">
         <v>54</v>
       </c>
@@ -2744,7 +2807,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>110</v>
       </c>
@@ -2755,7 +2818,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C44" s="10" t="s">
         <v>54</v>
       </c>
@@ -2763,7 +2826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>111</v>
       </c>
@@ -2774,7 +2837,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C46" s="10" t="s">
         <v>54</v>
       </c>
@@ -2782,12 +2845,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D47" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>65</v>
       </c>
@@ -2801,7 +2864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C49" s="10" t="s">
         <v>54</v>
       </c>
@@ -2809,7 +2872,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>113</v>
       </c>
@@ -2820,7 +2883,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C51" s="10" t="s">
         <v>54</v>
       </c>
@@ -2828,7 +2891,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>114</v>
       </c>
@@ -2839,7 +2902,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C53" s="10" t="s">
         <v>54</v>
       </c>
@@ -2847,12 +2910,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D54" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>115</v>
       </c>
@@ -2863,7 +2926,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="10" t="s">
         <v>54</v>
       </c>
@@ -2871,7 +2934,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>64</v>
       </c>
@@ -2885,7 +2948,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" s="10" t="s">
         <v>54</v>
       </c>
@@ -2893,12 +2956,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D59" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>65</v>
       </c>
@@ -2912,7 +2975,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" s="10" t="s">
         <v>54</v>
       </c>
@@ -2920,7 +2983,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>119</v>
       </c>
@@ -2931,7 +2994,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="10" t="s">
         <v>54</v>
       </c>
@@ -2939,12 +3002,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D64" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>120</v>
       </c>
@@ -2955,12 +3018,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C67" s="10" t="s">
         <v>54</v>
       </c>
@@ -2968,7 +3031,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C68" s="10" t="s">
         <v>53</v>
       </c>
@@ -2976,7 +3039,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C69" s="10" t="s">
         <v>54</v>
       </c>
@@ -2984,12 +3047,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D70" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>64</v>
       </c>
@@ -3003,7 +3066,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C72" s="10" t="s">
         <v>54</v>
       </c>
@@ -3011,7 +3074,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>122</v>
       </c>
@@ -3022,12 +3085,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D74" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C75" s="10" t="s">
         <v>54</v>
       </c>
@@ -3035,7 +3098,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>65</v>
       </c>
@@ -3049,12 +3112,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D77" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C78" s="10" t="s">
         <v>54</v>
       </c>
@@ -3062,7 +3125,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>64</v>
       </c>
@@ -3076,12 +3139,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D80" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="10" t="s">
         <v>54</v>
       </c>
@@ -3089,7 +3152,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C82" s="10" t="s">
         <v>76</v>
       </c>
@@ -3108,58 +3171,58 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F64"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" style="10"/>
-    <col min="3" max="4" width="7.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="51.83203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="25.4140625" style="10" customWidth="1"/>
-    <col min="7" max="18" width="7.33203125" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="10.6640625" style="10"/>
+    <col min="1" max="2" width="10.625" style="10"/>
+    <col min="3" max="4" width="7.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="51.875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="10" customWidth="1"/>
+    <col min="7" max="18" width="7.375" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="10.625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C1" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>59</v>
       </c>
@@ -3175,816 +3238,1022 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="19" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="73" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="74"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="23"/>
-      <c r="B13" s="25" t="s">
+      <c r="E12" s="27"/>
+      <c r="F12" s="75"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="76" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="24" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="23"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="24" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="77"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="35"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="23"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="24" t="s">
+      <c r="E15" s="24"/>
+      <c r="F15" s="77"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="35"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="77"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="35"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="23"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25" t="s">
+      <c r="F17" s="77"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="35"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="23"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25" t="s">
+      <c r="F18" s="77"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="23"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25" t="s">
+      <c r="F19" s="77"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="35"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="23"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25" t="s">
+      <c r="F20" s="77"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="35"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="23"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25" t="s">
+      <c r="F21" s="77"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="35"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="23"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30" t="s">
+      <c r="F22" s="77"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="37"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="23"/>
-      <c r="B24" s="38" t="s">
+      <c r="F23" s="78"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
-      <c r="B25" s="30" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="38" t="s">
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="40" t="s">
+    <row r="26" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="46" t="s">
+      <c r="D26" s="36"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="48" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="58" t="s">
+      <c r="D27" s="42"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="79"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="71"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="42"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="70" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="59"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="40"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="60"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="40"/>
-      <c r="B30" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="48" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="34"/>
+      <c r="F31" s="79"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E32" s="34"/>
+      <c r="F32" s="79"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="79"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="43"/>
+      <c r="F34" s="71"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="50" t="s">
+      <c r="D35" s="42"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="70" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="61"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43" t="s">
+      <c r="E36" s="34"/>
+      <c r="F36" s="79"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="61"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43" t="s">
+      <c r="E37" s="34"/>
+      <c r="F37" s="79"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="61"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53" t="s">
+      <c r="E38" s="34"/>
+      <c r="F38" s="79"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="54"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="62" t="s">
+      <c r="E39" s="43"/>
+      <c r="F39" s="71"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B40" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C40" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="73"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="62" t="s">
+      <c r="D40" s="60"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="72" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="73"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="76" t="s">
+      <c r="D41" s="60"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="68" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="75"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="73" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="77"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="75"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="73" t="s">
+      <c r="E42" s="61"/>
+      <c r="F42" s="69"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="62"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="74"/>
-      <c r="F38" s="77"/>
-    </row>
-    <row r="39" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="75"/>
-      <c r="B39" s="78" t="s">
+      <c r="E43" s="61"/>
+      <c r="F43" s="69"/>
+    </row>
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="62"/>
+      <c r="B44" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="79" t="s">
+      <c r="C44" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="80"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="81" t="s">
+      <c r="D44" s="65"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="66" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="75"/>
-      <c r="B40" s="74" t="s">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
+      <c r="B45" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C45" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="73"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="66" t="s">
+      <c r="D45" s="60"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="53" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="75"/>
-      <c r="B41" s="63" t="s">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="62"/>
+      <c r="B46" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C46" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="65"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="82" t="s">
+      <c r="D46" s="52"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="67" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="67"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="71" t="s">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="54"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="58" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="42" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="40" t="s">
+      <c r="D48" s="36"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="33" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="40"/>
-      <c r="B44" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="48" t="s">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="56" t="s">
+      <c r="D49" s="42"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="47" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="40"/>
-      <c r="B45" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="48" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="46" t="s">
+      <c r="D50" s="42"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="40"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="55" t="s">
+    <row r="51" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="46" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="40"/>
-      <c r="B47" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="48" t="s">
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="57" t="s">
+      <c r="D52" s="42"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="48" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="62" t="s">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B53" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C53" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="D48" s="65"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="66" t="s">
+      <c r="D53" s="52"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="53" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="67"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="71" t="s">
+    <row r="54" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="54"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="58" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="46" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="40" t="s">
+      <c r="B55" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="42"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="33" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="40"/>
-      <c r="B51" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="42" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="33"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="46" t="s">
+      <c r="D56" s="36"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="40"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="45" t="s">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="40"/>
-      <c r="B53" s="47" t="s">
+    <row r="58" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C58" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="50" t="s">
+      <c r="D58" s="42"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="70" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="40"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="52" t="s">
+    <row r="59" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="33"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="D54" s="53"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="54"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="40"/>
-      <c r="B55" s="47" t="s">
+      <c r="D59" s="45"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="71"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C60" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="46" t="s">
+      <c r="D60" s="42"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="39" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="40"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="52" t="s">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="53"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="55" t="s">
+      <c r="D61" s="45"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="46" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="62" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="74" t="s">
+      <c r="B62" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C57" s="72" t="s">
+      <c r="C62" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="73"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="75" t="s">
+      <c r="D62" s="60"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="62" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="75"/>
-      <c r="B58" s="63" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="62"/>
+      <c r="B63" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="64" t="s">
+      <c r="C63" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="65"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="76" t="s">
+      <c r="D63" s="52"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="68" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="67"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="69" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="54"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="70"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="83"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="40" t="s">
+      <c r="D64" s="57"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="72"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B65" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C65" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="40"/>
-    </row>
-    <row r="61" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="44"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="42" t="s">
+      <c r="D65" s="36"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="33"/>
+    </row>
+    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="37"/>
+      <c r="B66" s="34"/>
+      <c r="C66" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="45" t="s">
+      <c r="D66" s="36"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="38" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="23" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B67" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C67" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="23"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="22" t="s">
+      <c r="D67" s="28"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="22"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="24"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="23" t="s">
+      <c r="D68" s="23"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="28"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="36" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="28"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="12"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="12"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="12"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="12"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="12"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D69" s="26"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="25"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="12"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="12"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="12"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="12"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="12"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
     </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="12"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F53:F54"/>
+  <mergeCells count="8">
+    <mergeCell ref="F41:F43"/>
     <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F63:F64"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="F13:F23"/>
     <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F35:F39"/>
     <mergeCell ref="F30:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F831F8-8F4C-430A-8EF1-D9D1714E1DF3}">
+  <dimension ref="B1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="39.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <f>SUM(L3:L9)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="L4">
+        <f>+L3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="J7">
+        <f>+J2-J8-J6-J5</f>
+        <v>34</v>
+      </c>
+      <c r="K7">
+        <v>68</v>
+      </c>
+      <c r="L7">
+        <v>71</v>
+      </c>
+      <c r="M7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f>+L8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/Planificateur de projet Gantt1.xlsx
+++ b/doc/Planificateur de projet Gantt1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAC74D0-63BC-4529-B211-4781D2AA387D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA457614-2426-47FA-AFFB-0092F8A13E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="18000" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificateur de projet" sheetId="1" r:id="rId1"/>
@@ -1234,6 +1234,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,9 +1272,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1797,25 +1797,25 @@
   </sheetPr>
   <dimension ref="B1:BK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.58203125" customWidth="1"/>
+    <col min="2" max="2" width="28.08203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="80.25" style="2" customWidth="1"/>
     <col min="4" max="23" width="3.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:63" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:63" ht="44.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="2:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:63" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="3">
@@ -1999,7 +1999,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
@@ -2008,14 +2008,14 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2024,14 +2024,14 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="s">
         <v>6</v>
@@ -2039,7 +2039,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
@@ -2049,21 +2049,21 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="8"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2072,91 +2072,91 @@
       </c>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="P12" s="5"/>
     </row>
-    <row r="13" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:63" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
@@ -2172,14 +2172,14 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="8"/>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
@@ -2188,14 +2188,14 @@
       </c>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
         <v>22</v>
@@ -2203,7 +2203,7 @@
       <c r="N28"/>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
         <v>11</v>
@@ -2211,69 +2211,69 @@
       <c r="N29"/>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
         <v>13</v>
       </c>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B32" s="7"/>
       <c r="C32" s="8" t="s">
         <v>14</v>
       </c>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="7"/>
       <c r="C33" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B35" s="7"/>
       <c r="C35" s="8" t="s">
         <v>19</v>
       </c>
       <c r="P35" s="5"/>
     </row>
-    <row r="36" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B36" s="7"/>
       <c r="C36" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B37" s="7"/>
       <c r="C37" s="8" t="s">
         <v>28</v>
       </c>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B38" s="7"/>
       <c r="C38" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:26" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="7" t="s">
         <v>29</v>
       </c>
@@ -2291,101 +2291,101 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="2:26" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:26" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B40" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
     </row>
-    <row r="48" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:26" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
     </row>
-    <row r="49" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
     </row>
-    <row r="50" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
     </row>
-    <row r="51" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
     </row>
-    <row r="52" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
     </row>
-    <row r="53" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
     </row>
-    <row r="54" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
     </row>
-    <row r="55" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
     </row>
-    <row r="56" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
     </row>
-    <row r="57" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
     </row>
-    <row r="58" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
     </row>
-    <row r="59" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
     </row>
-    <row r="60" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
     </row>
-    <row r="61" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
     </row>
-    <row r="62" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
     </row>
-    <row r="63" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
     </row>
@@ -2480,21 +2480,21 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="10.625" style="10"/>
-    <col min="4" max="5" width="7.375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="51.875" style="10" customWidth="1"/>
-    <col min="7" max="19" width="7.375" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="10.625" style="10"/>
+    <col min="1" max="3" width="10.58203125" style="10"/>
+    <col min="4" max="5" width="7.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="51.83203125" style="10" customWidth="1"/>
+    <col min="7" max="19" width="7.33203125" style="10" customWidth="1"/>
+    <col min="20" max="16384" width="10.58203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
       <c r="D1" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>64</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C4" s="10" t="s">
         <v>54</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>101</v>
       </c>
@@ -2544,17 +2544,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E6" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E7" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C8" s="10" t="s">
         <v>54</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>102</v>
       </c>
@@ -2573,57 +2573,57 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E10" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E11" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E12" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F14" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F15" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F16" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F18" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F19" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C20" s="10" t="s">
         <v>54</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" s="10" t="s">
         <v>104</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" s="10" t="s">
         <v>103</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C23" s="10" t="s">
         <v>54</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>65</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C25" s="10" t="s">
         <v>54</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" s="10" t="s">
         <v>106</v>
       </c>
@@ -2694,17 +2694,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E27" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E28" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C29" s="10" t="s">
         <v>54</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" s="10" t="s">
         <v>107</v>
       </c>
@@ -2723,27 +2723,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E31" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E32" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E33" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E34" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C35" s="10" t="s">
         <v>54</v>
       </c>
@@ -2751,12 +2751,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D36" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>64</v>
       </c>
@@ -2770,17 +2770,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E38" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E39" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C40" s="10" t="s">
         <v>54</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B41" s="10" t="s">
         <v>109</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C42" s="10" t="s">
         <v>54</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B43" s="10" t="s">
         <v>110</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C44" s="10" t="s">
         <v>54</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B45" s="10" t="s">
         <v>111</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C46" s="10" t="s">
         <v>54</v>
       </c>
@@ -2845,12 +2845,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D47" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>65</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C49" s="10" t="s">
         <v>54</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B50" s="10" t="s">
         <v>113</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C51" s="10" t="s">
         <v>54</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B52" s="10" t="s">
         <v>114</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C53" s="10" t="s">
         <v>54</v>
       </c>
@@ -2910,12 +2910,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D54" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B55" s="10" t="s">
         <v>115</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C56" s="10" t="s">
         <v>54</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>64</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C58" s="10" t="s">
         <v>54</v>
       </c>
@@ -2956,12 +2956,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D59" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>65</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C61" s="10" t="s">
         <v>54</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B62" s="10" t="s">
         <v>119</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C63" s="10" t="s">
         <v>54</v>
       </c>
@@ -3002,12 +3002,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D64" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B65" s="10" t="s">
         <v>120</v>
       </c>
@@ -3018,12 +3018,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D66" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C67" s="10" t="s">
         <v>54</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C68" s="10" t="s">
         <v>53</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C69" s="10" t="s">
         <v>54</v>
       </c>
@@ -3047,12 +3047,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D70" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>64</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C72" s="10" t="s">
         <v>54</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B73" s="10" t="s">
         <v>122</v>
       </c>
@@ -3085,12 +3085,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D74" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C75" s="10" t="s">
         <v>54</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>65</v>
       </c>
@@ -3112,12 +3112,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D77" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C78" s="10" t="s">
         <v>54</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>64</v>
       </c>
@@ -3139,12 +3139,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D80" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C81" s="10" t="s">
         <v>54</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C82" s="10" t="s">
         <v>76</v>
       </c>
@@ -3173,56 +3173,56 @@
   </sheetPr>
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.58203125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.625" style="10"/>
-    <col min="3" max="4" width="7.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="51.875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="25.375" style="10" customWidth="1"/>
-    <col min="7" max="18" width="7.375" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="10"/>
+    <col min="1" max="2" width="10.58203125" style="10"/>
+    <col min="3" max="4" width="7.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="51.83203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="10" customWidth="1"/>
+    <col min="7" max="18" width="7.33203125" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="10.58203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.35">
       <c r="C1" s="11" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>59</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>146</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23" t="s">
@@ -3262,11 +3262,11 @@
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="74" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -3274,9 +3274,9 @@
         <v>32</v>
       </c>
       <c r="E11" s="24"/>
-      <c r="F11" s="74"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="75"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="21"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
@@ -3284,23 +3284,23 @@
         <v>33</v>
       </c>
       <c r="E12" s="27"/>
-      <c r="F12" s="75"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="76"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="76" t="s">
+      <c r="F13" s="77" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
       <c r="B14" s="24"/>
       <c r="C14" s="21"/>
@@ -3308,9 +3308,9 @@
         <v>35</v>
       </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="77"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="78"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="24"/>
       <c r="C15" s="21"/>
@@ -3318,9 +3318,9 @@
         <v>36</v>
       </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="77"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="78"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
       <c r="B16" s="24"/>
       <c r="C16" s="21"/>
@@ -3328,9 +3328,9 @@
         <v>37</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="77"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="78"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
       <c r="B17" s="24"/>
       <c r="C17" s="21"/>
@@ -3338,9 +3338,9 @@
       <c r="E17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="77"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="78"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="22"/>
       <c r="B18" s="24"/>
       <c r="C18" s="21"/>
@@ -3348,9 +3348,9 @@
       <c r="E18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="77"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="78"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="24"/>
       <c r="C19" s="21"/>
@@ -3358,9 +3358,9 @@
       <c r="E19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="77"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="78"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="24"/>
       <c r="C20" s="21"/>
@@ -3368,9 +3368,9 @@
       <c r="E20" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="77"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="78"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="24"/>
       <c r="C21" s="21"/>
@@ -3378,9 +3378,9 @@
       <c r="E21" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="77"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="78"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="24"/>
       <c r="C22" s="21"/>
@@ -3388,9 +3388,9 @@
       <c r="E22" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="77"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="78"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="22"/>
       <c r="B23" s="27"/>
       <c r="C23" s="30"/>
@@ -3398,9 +3398,9 @@
       <c r="E23" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="78"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="79"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="31" t="s">
         <v>102</v>
@@ -3412,7 +3412,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25"/>
       <c r="B25" s="27" t="s">
         <v>104</v>
@@ -3426,7 +3426,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
         <v>145</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="41" t="s">
@@ -3450,11 +3450,11 @@
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="40"/>
-      <c r="F27" s="70" t="s">
+      <c r="F27" s="71" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
       <c r="C28" s="35"/>
@@ -3462,9 +3462,9 @@
         <v>38</v>
       </c>
       <c r="E28" s="34"/>
-      <c r="F28" s="79"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="80"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="33"/>
       <c r="B29" s="37"/>
       <c r="C29" s="44"/>
@@ -3472,9 +3472,9 @@
         <v>45</v>
       </c>
       <c r="E29" s="43"/>
-      <c r="F29" s="71"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="72"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="33"/>
       <c r="B30" s="40" t="s">
         <v>106</v>
@@ -3484,11 +3484,11 @@
       </c>
       <c r="D30" s="42"/>
       <c r="E30" s="40"/>
-      <c r="F30" s="70" t="s">
+      <c r="F30" s="71" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="33"/>
       <c r="B31" s="34"/>
       <c r="C31" s="35"/>
@@ -3496,9 +3496,9 @@
         <v>152</v>
       </c>
       <c r="E31" s="34"/>
-      <c r="F31" s="79"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="80"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="35"/>
@@ -3506,9 +3506,9 @@
         <v>153</v>
       </c>
       <c r="E32" s="34"/>
-      <c r="F32" s="79"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="80"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="33"/>
       <c r="B33" s="34"/>
       <c r="C33" s="35"/>
@@ -3516,9 +3516,9 @@
         <v>154</v>
       </c>
       <c r="E33" s="34"/>
-      <c r="F33" s="79"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="80"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="44"/>
@@ -3526,9 +3526,9 @@
         <v>155</v>
       </c>
       <c r="E34" s="43"/>
-      <c r="F34" s="71"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="72"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="33"/>
       <c r="B35" s="40" t="s">
         <v>107</v>
@@ -3538,11 +3538,11 @@
       </c>
       <c r="D35" s="42"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="71" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="33"/>
       <c r="B36" s="34"/>
       <c r="C36" s="35"/>
@@ -3550,9 +3550,9 @@
         <v>50</v>
       </c>
       <c r="E36" s="34"/>
-      <c r="F36" s="79"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="80"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
       <c r="C37" s="35"/>
@@ -3560,9 +3560,9 @@
         <v>51</v>
       </c>
       <c r="E37" s="34"/>
-      <c r="F37" s="79"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="80"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
       <c r="C38" s="35"/>
@@ -3570,9 +3570,9 @@
         <v>66</v>
       </c>
       <c r="E38" s="34"/>
-      <c r="F38" s="79"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="80"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="33"/>
       <c r="B39" s="34"/>
       <c r="C39" s="44"/>
@@ -3580,9 +3580,9 @@
         <v>52</v>
       </c>
       <c r="E39" s="43"/>
-      <c r="F39" s="71"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="72"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="49" t="s">
         <v>148</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="62"/>
       <c r="B41" s="62"/>
       <c r="C41" s="59" t="s">
@@ -3606,11 +3606,11 @@
       </c>
       <c r="D41" s="60"/>
       <c r="E41" s="61"/>
-      <c r="F41" s="68" t="s">
+      <c r="F41" s="69" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="62"/>
       <c r="B42" s="62"/>
       <c r="C42" s="59"/>
@@ -3618,9 +3618,9 @@
         <v>61</v>
       </c>
       <c r="E42" s="61"/>
-      <c r="F42" s="69"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="70"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="62"/>
       <c r="B43" s="54"/>
       <c r="C43" s="59"/>
@@ -3628,9 +3628,9 @@
         <v>33</v>
       </c>
       <c r="E43" s="61"/>
-      <c r="F43" s="69"/>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F43" s="70"/>
+    </row>
+    <row r="44" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="62"/>
       <c r="B44" s="63" t="s">
         <v>109</v>
@@ -3644,7 +3644,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="62"/>
       <c r="B45" s="61" t="s">
         <v>110</v>
@@ -3658,7 +3658,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="62"/>
       <c r="B46" s="50" t="s">
         <v>111</v>
@@ -3672,7 +3672,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="54"/>
       <c r="B47" s="55"/>
       <c r="C47" s="56"/>
@@ -3682,7 +3682,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="33" t="s">
         <v>149</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="33"/>
       <c r="B49" s="40" t="s">
         <v>113</v>
@@ -3712,7 +3712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="33"/>
       <c r="B50" s="40" t="s">
         <v>114</v>
@@ -3726,7 +3726,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="33"/>
       <c r="B51" s="43"/>
       <c r="C51" s="44"/>
@@ -3736,7 +3736,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="33"/>
       <c r="B52" s="40" t="s">
         <v>115</v>
@@ -3750,7 +3750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="49" t="s">
         <v>148</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="54"/>
       <c r="B54" s="55"/>
       <c r="C54" s="56"/>
@@ -3776,7 +3776,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="39" t="s">
         <v>145</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
       <c r="C56" s="35" t="s">
@@ -3804,7 +3804,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
       <c r="C57" s="35"/>
@@ -3814,7 +3814,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="33"/>
       <c r="B58" s="40" t="s">
         <v>119</v>
@@ -3824,11 +3824,11 @@
       </c>
       <c r="D58" s="42"/>
       <c r="E58" s="40"/>
-      <c r="F58" s="70" t="s">
+      <c r="F58" s="71" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="33"/>
       <c r="B59" s="43"/>
       <c r="C59" s="44" t="s">
@@ -3836,9 +3836,9 @@
       </c>
       <c r="D59" s="45"/>
       <c r="E59" s="43"/>
-      <c r="F59" s="71"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="72"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="33"/>
       <c r="B60" s="40" t="s">
         <v>120</v>
@@ -3852,7 +3852,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="33"/>
       <c r="B61" s="43"/>
       <c r="C61" s="44" t="s">
@@ -3864,7 +3864,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="49" t="s">
         <v>148</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="62"/>
       <c r="B63" s="50" t="s">
         <v>122</v>
@@ -3890,11 +3890,11 @@
       </c>
       <c r="D63" s="52"/>
       <c r="E63" s="50"/>
-      <c r="F63" s="68" t="s">
+      <c r="F63" s="69" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="54"/>
       <c r="B64" s="55"/>
       <c r="C64" s="56" t="s">
@@ -3902,9 +3902,9 @@
       </c>
       <c r="D64" s="57"/>
       <c r="E64" s="55"/>
-      <c r="F64" s="72"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="73"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="33" t="s">
         <v>145</v>
       </c>
@@ -3918,7 +3918,7 @@
       <c r="E65" s="34"/>
       <c r="F65" s="33"/>
     </row>
-    <row r="66" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="37"/>
       <c r="B66" s="34"/>
       <c r="C66" s="35" t="s">
@@ -3930,7 +3930,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="22" t="s">
         <v>146</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="E67" s="29"/>
       <c r="F67" s="18"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="22"/>
       <c r="B68" s="24"/>
       <c r="C68" s="21" t="s">
@@ -3956,7 +3956,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="25"/>
       <c r="B69" s="27"/>
       <c r="C69" s="30" t="s">
@@ -3966,127 +3966,127 @@
       <c r="E69" s="27"/>
       <c r="F69" s="25"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="12"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="12"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="12"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="12"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="12"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="12"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="12"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="12"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="12"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="12"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="12"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="12"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="12"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="12"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="12"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="12"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="12"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="12"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="12"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="12"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="12"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="12"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="12"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="12"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="12"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="12"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="12"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="12"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="12"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="12"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="12"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="12"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" s="12"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" s="12"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" s="12"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" s="12"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" s="12"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" s="12"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" s="12"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" s="12"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" s="12"/>
     </row>
   </sheetData>
@@ -4113,24 +4113,24 @@
       <selection activeCell="B1" sqref="B1:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.58203125" customWidth="1"/>
+    <col min="3" max="3" width="39.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="80" t="s">
+    <row r="1" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="68" t="s">
         <v>171</v>
       </c>
       <c r="K1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
         <v>162</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="10" t="s">
         <v>163</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="L4">
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
         <v>164</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10" t="s">
         <v>165</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
       <c r="J7">
         <f>+J2-J8-J6-J5</f>
@@ -4226,7 +4226,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J8">
         <v>4</v>
       </c>
@@ -4240,18 +4240,18 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L9">
         <f>+L8</f>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:13" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
